--- a/2018/lesson3/entropy_example.xlsx
+++ b/2018/lesson3/entropy_example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\snewn\Documents\fastai\2018\lesson3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D881C335-170D-4A77-B3E2-B20C7D671D9A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{934B9C82-CE7B-4BBC-A4A2-E923251AC5C8}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="4224" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>isCat</t>
   </si>
@@ -90,6 +90,12 @@
   </si>
   <si>
     <t>^^ use exp() to remove negatives</t>
+  </si>
+  <si>
+    <t>softmax = activation for single label</t>
+  </si>
+  <si>
+    <t>sigmoid = activation for multi-label</t>
   </si>
 </sst>
 </file>
@@ -451,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D12" sqref="D12:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -488,15 +494,15 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">RAND()*10-5</f>
-        <v>1.8001736462730449</v>
+        <v>-4.0624988800186053</v>
       </c>
       <c r="C2" s="2">
         <f ca="1">EXP(B2)</f>
-        <v>6.0506980543612512</v>
+        <v>1.7205969696206528E-2</v>
       </c>
       <c r="D2" s="2">
         <f ca="1">C2/$C$7</f>
-        <v>7.4357165582786933E-2</v>
+        <v>9.4691876704761595E-5</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -506,7 +512,7 @@
       </c>
       <c r="G2">
         <f ca="1">C2/(1+C2)</f>
-        <v>0.85817007163121328</v>
+        <v>1.6914931890682054E-2</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -518,15 +524,15 @@
       </c>
       <c r="B3" s="2">
         <f t="shared" ref="B3:B6" ca="1" si="0">RAND()*10-5</f>
-        <v>-4.7490057457181267</v>
+        <v>4.2901929277047319</v>
       </c>
       <c r="C3" s="2">
         <f t="shared" ref="C3:C6" ca="1" si="1">EXP(B3)</f>
-        <v>8.6603014658195986E-3</v>
+        <v>72.980547110956252</v>
       </c>
       <c r="D3" s="2">
         <f ca="1">C3/$C$7</f>
-        <v>1.0642664107600725E-4</v>
+        <v>0.40164344648359673</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -536,7 +542,7 @@
       </c>
       <c r="G3">
         <f t="shared" ref="G3:G6" ca="1" si="2">C3/(1+C3)</f>
-        <v>8.5859445972386872E-3</v>
+        <v>0.98648293316214331</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -548,15 +554,15 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.1193124674812474</v>
+        <v>-1.2689132715767237</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>22.630814871994986</v>
+        <v>0.28113697537208449</v>
       </c>
       <c r="D4" s="2">
         <f t="shared" ref="D4:D6" ca="1" si="3">C4/$C$7</f>
-        <v>0.27811059709010238</v>
+        <v>1.5472181038975296E-3</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -566,7 +572,7 @@
       </c>
       <c r="G4">
         <f t="shared" ca="1" si="2"/>
-        <v>0.95768237340028817</v>
+        <v>0.21944333882833492</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -578,15 +584,15 @@
       </c>
       <c r="B5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>3.964145231276115</v>
+        <v>0.24554210427630974</v>
       </c>
       <c r="C5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>52.675225006265862</v>
+        <v>1.2783141049479965</v>
       </c>
       <c r="D5" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0.64732703445320883</v>
+        <v>7.0351141930919976E-3</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -596,7 +602,7 @@
       </c>
       <c r="G5">
         <f t="shared" ca="1" si="2"/>
-        <v>0.98136943068458005</v>
+        <v>0.56107895841568978</v>
       </c>
       <c r="H5">
         <v>1</v>
@@ -608,15 +614,15 @@
       </c>
       <c r="B6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>-4.82360465996552</v>
+        <v>4.6742074004271252</v>
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>8.0377614597300657E-3</v>
+        <v>107.14760827877632</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>9.877623282578177E-5</v>
+        <v>0.58967952934270895</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -626,7 +632,7 @@
       </c>
       <c r="G6">
         <f t="shared" ca="1" si="2"/>
-        <v>7.9736709943193582E-3</v>
+        <v>0.99075337849892842</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,7 +642,7 @@
       <c r="B7" s="2"/>
       <c r="C7" s="2">
         <f ca="1">SUM(C2:C6)</f>
-        <v>81.373435995547652</v>
+        <v>181.70481243974885</v>
       </c>
       <c r="D7" s="2">
         <f ca="1">SUM(D2:D6)</f>
@@ -658,8 +664,19 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D12" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
